--- a/projects/Linear-Programming-Net-Profit(PC_TECH_COMPANY).xlsx
+++ b/projects/Linear-Programming-Net-Profit(PC_TECH_COMPANY).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\anson\Financial-Modelling\business-analytics-excel-coursera\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FA7D9-E70C-44E6-A537-553123535EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C208492-FE48-4939-B8CD-9F88A49EB57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{70C50A23-BA4F-4C7F-9744-0DFCF648A0CE}"/>
   </bookViews>
